--- a/彭渔宴.xlsx
+++ b/彭渔宴.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彭渔宴•海鲜夜肆" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="彭渔宴•海鲜夜肆" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -880,6 +880,74 @@
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1144,7 +1212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY84"/>
+  <dimension ref="A1:AY100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
@@ -17516,6 +17584,2478 @@
         </is>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>1,131</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>8618.64</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>1027.50</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>1027.50</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>7624.14</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF85" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AG85" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆4人餐[168.0]</t>
+        </is>
+      </c>
+      <c r="AH85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI85" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ85" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆6人餐[288.0]</t>
+        </is>
+      </c>
+      <c r="AK85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AL85" t="inlineStr">
+        <is>
+          <t>576.0</t>
+        </is>
+      </c>
+      <c r="AS85" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆代金券[89.9]</t>
+        </is>
+      </c>
+      <c r="AT85" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AU85" t="inlineStr">
+        <is>
+          <t>449.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>1,131</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>8618.64</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>1027.50</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>1027.50</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>7624.14</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF86" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AM86" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆金鲷鱼刺身冰盘1份[128.0]</t>
+        </is>
+      </c>
+      <c r="AN86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO86" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP86" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆招牌脆皮玻璃乳鸽1只[1.0]</t>
+        </is>
+      </c>
+      <c r="AQ86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR86" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>1,131</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>8618.64</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>1027.50</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>1027.50</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>7624.14</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF87" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AG87" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆4人餐[168.0]</t>
+        </is>
+      </c>
+      <c r="AH87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI87" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ87" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆6人餐[288.0]</t>
+        </is>
+      </c>
+      <c r="AK87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AL87" t="inlineStr">
+        <is>
+          <t>576.0</t>
+        </is>
+      </c>
+      <c r="AS87" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆代金券[89.9]</t>
+        </is>
+      </c>
+      <c r="AT87" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AU87" t="inlineStr">
+        <is>
+          <t>449.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>1,131</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>8618.64</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>1027.50</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>1027.50</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>7624.14</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF88" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AM88" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆金鲷鱼刺身冰盘1份[128.0]</t>
+        </is>
+      </c>
+      <c r="AN88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO88" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP88" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆招牌脆皮玻璃乳鸽1只[1.0]</t>
+        </is>
+      </c>
+      <c r="AQ88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR88" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2022-03-17</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>1,128</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>3080.37</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>629.30</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>629.30</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>2451.07</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF89" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AG89" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆4人餐[168.0]</t>
+        </is>
+      </c>
+      <c r="AH89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI89" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ89" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆6人餐[288.0]</t>
+        </is>
+      </c>
+      <c r="AK89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL89" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS89" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆代金券[89.9]</t>
+        </is>
+      </c>
+      <c r="AT89" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AU89" t="inlineStr">
+        <is>
+          <t>629.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2022-03-17</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>1,128</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>3080.37</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>629.30</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>629.30</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>2451.07</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF90" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AM90" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆金鲷鱼刺身冰盘1份[128.0]</t>
+        </is>
+      </c>
+      <c r="AN90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO90" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP90" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆招牌脆皮玻璃乳鸽1只[1.0]</t>
+        </is>
+      </c>
+      <c r="AQ90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR90" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>1,763</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>9262.22</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>348.80</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>348.80</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>9413.42</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA91" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AF91" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AG91" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆4人餐[168.0]</t>
+        </is>
+      </c>
+      <c r="AH91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI91" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="AJ91" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆6人餐[288.0]</t>
+        </is>
+      </c>
+      <c r="AK91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL91" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS91" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆代金券[89.9]</t>
+        </is>
+      </c>
+      <c r="AT91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AU91" t="inlineStr">
+        <is>
+          <t>179.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>1,763</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>9262.22</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>348.80</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>348.80</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>9413.42</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA92" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AF92" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AM92" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆金鲷鱼刺身冰盘1份[128.0]</t>
+        </is>
+      </c>
+      <c r="AN92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO92" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP92" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆招牌脆皮玻璃乳鸽1只[1.0]</t>
+        </is>
+      </c>
+      <c r="AQ92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR92" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>1,763</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>9262.22</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>348.80</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>348.80</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>9413.42</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA93" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AF93" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AG93" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆4人餐[168.0]</t>
+        </is>
+      </c>
+      <c r="AH93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI93" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="AJ93" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆6人餐[288.0]</t>
+        </is>
+      </c>
+      <c r="AK93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL93" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS93" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆代金券[89.9]</t>
+        </is>
+      </c>
+      <c r="AT93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AU93" t="inlineStr">
+        <is>
+          <t>179.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>1,763</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>9262.22</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>348.80</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>348.80</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>9413.42</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA94" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AF94" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AM94" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆金鲷鱼刺身冰盘1份[128.0]</t>
+        </is>
+      </c>
+      <c r="AN94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO94" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP94" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆招牌脆皮玻璃乳鸽1只[1.0]</t>
+        </is>
+      </c>
+      <c r="AQ94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR94" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>1,763</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>9262.22</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>348.80</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>348.80</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>9413.42</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA95" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AF95" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AG95" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆4人餐[168.0]</t>
+        </is>
+      </c>
+      <c r="AH95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI95" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="AJ95" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆6人餐[288.0]</t>
+        </is>
+      </c>
+      <c r="AK95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL95" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS95" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆代金券[89.9]</t>
+        </is>
+      </c>
+      <c r="AT95" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AU95" t="inlineStr">
+        <is>
+          <t>179.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>1,763</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>9262.22</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>348.80</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>348.80</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>9413.42</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA96" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AF96" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AM96" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆金鲷鱼刺身冰盘1份[128.0]</t>
+        </is>
+      </c>
+      <c r="AN96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO96" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP96" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆招牌脆皮玻璃乳鸽1只[1.0]</t>
+        </is>
+      </c>
+      <c r="AQ96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR96" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>1,587</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>2787.32</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>1289.50</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>1289.50</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>1497.82</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Z97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA97" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF97" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AG97" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆4人餐[168.0]</t>
+        </is>
+      </c>
+      <c r="AH97" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AI97" t="inlineStr">
+        <is>
+          <t>840.0</t>
+        </is>
+      </c>
+      <c r="AJ97" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆6人餐[288.0]</t>
+        </is>
+      </c>
+      <c r="AK97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL97" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS97" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆代金券[89.9]</t>
+        </is>
+      </c>
+      <c r="AT97" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AU97" t="inlineStr">
+        <is>
+          <t>449.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>1,587</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>2787.32</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>1289.50</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>1289.50</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>1497.82</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Z98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA98" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF98" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AM98" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆金鲷鱼刺身冰盘1份[128.0]</t>
+        </is>
+      </c>
+      <c r="AN98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO98" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP98" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆招牌脆皮玻璃乳鸽1只[1.0]</t>
+        </is>
+      </c>
+      <c r="AQ98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR98" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>1,587</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>2787.32</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>1289.50</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>1289.50</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>1497.82</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Z99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA99" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF99" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AG99" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆4人餐[168.0]</t>
+        </is>
+      </c>
+      <c r="AH99" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AI99" t="inlineStr">
+        <is>
+          <t>840.0</t>
+        </is>
+      </c>
+      <c r="AJ99" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆6人餐[288.0]</t>
+        </is>
+      </c>
+      <c r="AK99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL99" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AS99" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆代金券[89.9]</t>
+        </is>
+      </c>
+      <c r="AT99" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AU99" t="inlineStr">
+        <is>
+          <t>449.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>1,587</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>2787.32</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>1289.50</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>1289.50</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>1497.82</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA100" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF100" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AM100" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆金鲷鱼刺身冰盘1份[128.0]</t>
+        </is>
+      </c>
+      <c r="AN100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO100" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP100" t="inlineStr">
+        <is>
+          <t>珠海_彭渔宴•海鲜夜肆招牌脆皮玻璃乳鸽1只[1.0]</t>
+        </is>
+      </c>
+      <c r="AQ100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR100" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
